--- a/public/data/holy_persons.xlsx
+++ b/public/data/holy_persons.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$U$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$U$135</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -5696,7 +5696,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5706,9 +5706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:U1"/>
+      <selection pane="bottomLeft" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1"/>
@@ -6259,7 +6259,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="19.5" hidden="1" customHeight="1">
+    <row r="13" spans="1:21" ht="19.5" customHeight="1">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="19.5" hidden="1" customHeight="1">
+    <row r="14" spans="1:21" ht="19.5" customHeight="1">
       <c r="B14" t="s">
         <v>87</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="409.5" hidden="1" customHeight="1">
+    <row r="15" spans="1:21" ht="18" customHeight="1">
       <c r="B15" t="s">
         <v>95</v>
       </c>
@@ -12756,7 +12756,7 @@
       <c r="U135" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U1"/>
+  <autoFilter ref="A1:U135"/>
   <hyperlinks>
     <hyperlink ref="R2" r:id="rId1" location="Житие_Святого_Климента"/>
     <hyperlink ref="S3" r:id="rId2"/>
